--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>258165.2569719567</v>
+        <v>255760.6000729853</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>278.5211277895565</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>26.12519740821522</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>195.8301657086932</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>33.89103777739763</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>81.77200357366338</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>115.0138334144183</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>234.9876012133925</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>243.2395284792064</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>115.0138334144183</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>188.1774387435819</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>255.7871767362519</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>50.72965678626054</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>58.28185552386282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>160.2383728284217</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710086</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>65.3112677133731</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>245.7582652188222</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>145.599875079479</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,10 +1822,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>15.36336441206685</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986247</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>38.61213096654769</v>
+        <v>35.8864194913595</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>53.76947475494026</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>154.0370966049994</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>29.959001240238</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>38.05096575280857</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>82.52140782073276</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2843,13 +2843,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>80.67842139643778</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>29.24923305751261</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,10 +3244,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>181.2557668969882</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>113.6427030833203</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3904,16 +3904,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,13 +4186,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>175.8628696806972</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>186.0435781263486</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1901.13315943866</v>
+        <v>1514.533319374548</v>
       </c>
       <c r="C2" t="n">
-        <v>1532.170642498249</v>
+        <v>1145.570802434137</v>
       </c>
       <c r="D2" t="n">
-        <v>1173.904943891498</v>
+        <v>787.3051038273863</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>401.5168512291421</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
         <v>66.51211643218342</v>
@@ -4328,10 +4328,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V2" t="n">
-        <v>3017.506904945666</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W2" t="n">
-        <v>2664.738249675552</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X2" t="n">
-        <v>2291.272491414472</v>
+        <v>2291.272491414482</v>
       </c>
       <c r="Y2" t="n">
-        <v>1901.13315943866</v>
+        <v>1901.13315943867</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686077</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080131</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986305</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4513,22 +4513,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>838.2890224104441</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>838.2890224104441</v>
       </c>
       <c r="U4" t="n">
-        <v>804.7114165106916</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V4" t="n">
-        <v>804.7114165106916</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W4" t="n">
-        <v>515.2942464737309</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X4" t="n">
-        <v>287.3046955757135</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y4" t="n">
         <v>66.51211643218342</v>
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1813.303537713133</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W5" t="n">
-        <v>2763.640912107148</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X5" t="n">
-        <v>2763.640912107148</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y5" t="n">
-        <v>2373.501580131336</v>
+        <v>2182.266054653544</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
         <v>66.51211643218342</v>
@@ -4756,19 +4756,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>804.7114165106916</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>804.7114165106916</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>515.2942464737309</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X7" t="n">
-        <v>287.3046955757135</v>
+        <v>403.4802848832069</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>1561.900772669911</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1192.938255729499</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1192.938255729499</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1192.938255729499</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>781.9523509398919</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>366.8799007848883</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3274.36374404729</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3274.36374404729</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3020.833267321127</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2689.770379977556</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W8" t="n">
-        <v>2689.770379977556</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X8" t="n">
-        <v>2689.770379977556</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y8" t="n">
-        <v>2689.770379977556</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228021</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031491</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158142</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.2385409879445</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>570.3023580600376</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>420.1857186477018</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>272.2726250653087</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>125.3826775673984</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181842</v>
+        <v>759.0300635672535</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181842</v>
+        <v>537.2634481367795</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181842</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181842</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181842</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181842</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181842</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2297.690135143765</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2530.951795518647</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>538.7363435406111</v>
+        <v>159.7876405362276</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>159.7876405362276</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>159.7876405362276</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>159.7876405362276</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K13" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L13" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M13" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N13" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O13" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P13" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q13" t="n">
         <v>1440.555541309953</v>
@@ -5224,25 +5224,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S13" t="n">
-        <v>1257.700706964857</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T13" t="n">
-        <v>1257.700706964857</v>
+        <v>1220.954076332895</v>
       </c>
       <c r="U13" t="n">
-        <v>968.6254803090551</v>
+        <v>931.8788496770924</v>
       </c>
       <c r="V13" t="n">
-        <v>720.3848083708508</v>
+        <v>677.1943614712055</v>
       </c>
       <c r="W13" t="n">
-        <v>720.3848083708508</v>
+        <v>387.7771914342449</v>
       </c>
       <c r="X13" t="n">
-        <v>720.3848083708508</v>
+        <v>159.7876405362276</v>
       </c>
       <c r="Y13" t="n">
-        <v>720.3848083708508</v>
+        <v>159.7876405362276</v>
       </c>
     </row>
     <row r="14">
@@ -5255,13 +5255,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5297,28 +5297,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,16 +5349,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>484.8112968429803</v>
+        <v>387.7771914342449</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>387.7771914342449</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>387.7771914342449</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>387.7771914342449</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>240.8872439363346</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K16" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L16" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M16" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N16" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O16" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P16" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q16" t="n">
         <v>1440.555541309953</v>
       </c>
       <c r="R16" t="n">
-        <v>1373.509837562355</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S16" t="n">
-        <v>1190.65500321726</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T16" t="n">
-        <v>971.0535382402009</v>
+        <v>1220.954076332895</v>
       </c>
       <c r="U16" t="n">
-        <v>681.9783115843986</v>
+        <v>931.8788496770924</v>
       </c>
       <c r="V16" t="n">
-        <v>666.45976167322</v>
+        <v>677.1943614712055</v>
       </c>
       <c r="W16" t="n">
-        <v>666.45976167322</v>
+        <v>387.7771914342449</v>
       </c>
       <c r="X16" t="n">
-        <v>666.45976167322</v>
+        <v>387.7771914342449</v>
       </c>
       <c r="Y16" t="n">
-        <v>666.45976167322</v>
+        <v>387.7771914342449</v>
       </c>
     </row>
     <row r="17">
@@ -5507,19 +5507,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5528,16 +5528,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>724.7519863413023</v>
+        <v>1016.580456911437</v>
       </c>
       <c r="C19" t="n">
-        <v>555.8158034133954</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2407.960931088798</v>
+        <v>2410.714175003131</v>
       </c>
       <c r="T19" t="n">
-        <v>2188.359466111739</v>
+        <v>2191.112710026071</v>
       </c>
       <c r="U19" t="n">
-        <v>1899.284239455937</v>
+        <v>2191.112710026071</v>
       </c>
       <c r="V19" t="n">
-        <v>1644.59975125005</v>
+        <v>1936.428221820184</v>
       </c>
       <c r="W19" t="n">
-        <v>1355.182581213089</v>
+        <v>1647.011051783224</v>
       </c>
       <c r="X19" t="n">
-        <v>1127.193030315072</v>
+        <v>1419.021500885206</v>
       </c>
       <c r="Y19" t="n">
-        <v>906.400451171542</v>
+        <v>1198.228921741676</v>
       </c>
     </row>
     <row r="20">
@@ -5732,67 +5732,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>577.8620388433919</v>
+        <v>985.7836617409722</v>
       </c>
       <c r="C22" t="n">
-        <v>408.925855915485</v>
+        <v>816.8474788130653</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>666.7308394007296</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>518.8177458183364</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>371.9277983204261</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797766</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.56011257082</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279805</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487566</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="T22" t="n">
-        <v>2041.469518613829</v>
+        <v>2160.315914855607</v>
       </c>
       <c r="U22" t="n">
-        <v>1752.394291958027</v>
+        <v>2160.315914855607</v>
       </c>
       <c r="V22" t="n">
-        <v>1497.70980375214</v>
+        <v>1905.63142664972</v>
       </c>
       <c r="W22" t="n">
-        <v>1208.292633715179</v>
+        <v>1616.214256612759</v>
       </c>
       <c r="X22" t="n">
-        <v>980.3030828171618</v>
+        <v>1388.224705714742</v>
       </c>
       <c r="Y22" t="n">
-        <v>759.5105036736317</v>
+        <v>1167.432126571212</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>550.637687073287</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6206,67 +6206,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="29">
@@ -6455,7 +6455,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192616</v>
@@ -6482,19 +6482,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>551.354624631591</v>
+        <v>803.2707707770332</v>
       </c>
       <c r="C31" t="n">
-        <v>382.4184417036842</v>
+        <v>634.3345878491264</v>
       </c>
       <c r="D31" t="n">
-        <v>382.4184417036842</v>
+        <v>484.2179484367906</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>484.2179484367906</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>484.2179484367906</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.0218491516706</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.3100179938686</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782918</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038303</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797704</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R31" t="n">
-        <v>2417.418403724183</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2234.563569379087</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T31" t="n">
-        <v>2014.962104402028</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U31" t="n">
-        <v>1725.886877746226</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1471.202389540339</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1181.785219503378</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X31" t="n">
-        <v>953.7956686053609</v>
+        <v>1205.711814750803</v>
       </c>
       <c r="Y31" t="n">
-        <v>733.0030894618308</v>
+        <v>984.919235607273</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6704,13 +6704,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="35">
@@ -6926,58 +6926,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7129,16 +7129,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>555.8158034133954</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C46" t="n">
-        <v>555.8158034133954</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2019.423283183833</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1730.34805652803</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="V46" t="n">
-        <v>1475.663568322143</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W46" t="n">
-        <v>1186.246398285183</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X46" t="n">
-        <v>958.2568473871653</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y46" t="n">
-        <v>737.4642682436352</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
   </sheetData>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>131.9220927614417</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>335.8400629010714</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>80.10978030955815</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.026286001641</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>6.37937810500577</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.831980181936</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>19.92426321278981</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>236.7742789117611</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>142.4141550350969</v>
+        <v>145.1398665102851</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>111.7546635373286</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>63.36835372228884</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.975320248836</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0.5874149221277492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>37.12601365260907</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,10 +25132,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>70.88187642683982</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>38.5977558415268</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25792,16 +25792,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26074,13 +26074,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>41.54258064659109</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>100.1408962628956</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1032601.571114567</v>
+        <v>1032601.571114566</v>
       </c>
     </row>
     <row r="3">
@@ -26314,43 +26314,43 @@
         <v>357439.0053858114</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389278</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="D2" t="n">
         <v>369468.7964389278</v>
       </c>
       <c r="E2" t="n">
-        <v>352455.4604185486</v>
+        <v>352455.4604185488</v>
       </c>
       <c r="F2" t="n">
-        <v>352455.4604185486</v>
+        <v>352455.4604185487</v>
       </c>
       <c r="G2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="H2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="I2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605029</v>
       </c>
       <c r="J2" t="n">
         <v>363215.9698605026</v>
       </c>
       <c r="K2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605025</v>
       </c>
       <c r="L2" t="n">
-        <v>363215.9698605025</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="M2" t="n">
         <v>363215.9698605026</v>
       </c>
       <c r="N2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="O2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="P2" t="n">
         <v>363215.9698605027</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972771</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78338.50263942296</v>
+        <v>78338.50263942251</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086835455</v>
       </c>
       <c r="F4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086835455</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
@@ -26439,19 +26439,19 @@
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.583971892</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
+        <v>16046.583971892</v>
+      </c>
+      <c r="M4" t="n">
         <v>16046.58397189197</v>
       </c>
-      <c r="M4" t="n">
-        <v>16046.58397189203</v>
-      </c>
       <c r="N4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1157578.183542597</v>
+        <v>-1157645.015715114</v>
       </c>
       <c r="C6" t="n">
-        <v>167938.1117734819</v>
+        <v>167938.1117734816</v>
       </c>
       <c r="D6" t="n">
-        <v>167938.1117734823</v>
+        <v>167938.1117734821</v>
       </c>
       <c r="E6" t="n">
-        <v>-74840.91942139756</v>
+        <v>-74935.43795484428</v>
       </c>
       <c r="F6" t="n">
-        <v>250571.5423859579</v>
+        <v>250477.0238525115</v>
       </c>
       <c r="G6" t="n">
-        <v>246046.8560647037</v>
+        <v>246012.1181392678</v>
       </c>
       <c r="H6" t="n">
-        <v>246046.8560647035</v>
+        <v>246012.1181392679</v>
       </c>
       <c r="I6" t="n">
-        <v>246046.8560647035</v>
+        <v>246012.1181392681</v>
       </c>
       <c r="J6" t="n">
-        <v>28515.65366742616</v>
+        <v>28480.91574199071</v>
       </c>
       <c r="K6" t="n">
-        <v>246046.8560647036</v>
+        <v>246012.1181392677</v>
       </c>
       <c r="L6" t="n">
-        <v>246046.8560647034</v>
+        <v>246012.1181392678</v>
       </c>
       <c r="M6" t="n">
-        <v>160991.8281291917</v>
+        <v>160957.0902037559</v>
       </c>
       <c r="N6" t="n">
-        <v>246046.8560647035</v>
+        <v>246012.118139268</v>
       </c>
       <c r="O6" t="n">
-        <v>246046.8560647035</v>
+        <v>246012.1181392679</v>
       </c>
       <c r="P6" t="n">
-        <v>246046.8560647036</v>
+        <v>246012.1181392679</v>
       </c>
     </row>
   </sheetData>
@@ -26790,22 +26790,22 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="D4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>103.4092422827053</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>380.7508483334962</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>107.9970217577785</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>171.1980047911945</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>119.6954404072904</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>106.0014402382066</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27828,7 +27828,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>171.1980047911945</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>30.40721460851285</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>38.82058765106856</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>58.45810500191534</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.7439527351654</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>29.53065250302015</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-3.916515846374476e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>3.582082778545252e-12</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-9.379164112033322e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>3.110756097157719e-12</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29563,13 +29563,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29691,7 +29691,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29703,7 +29703,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,37 +31592,37 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026452</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31631,7 +31631,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31680,16 +31680,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
         <v>300.7247737883114</v>
@@ -31698,19 +31698,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780294</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>522.1224556861822</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>168.0123247135882</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,19 +32078,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359785</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
         <v>157.2826706286436</v>
@@ -35343,13 +35343,13 @@
         <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014211</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>379.5262112417378</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194023011</v>
       </c>
       <c r="K13" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L13" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M13" t="n">
-        <v>247.7627660915995</v>
+        <v>247.7627660915996</v>
       </c>
       <c r="N13" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O13" t="n">
-        <v>210.220233340163</v>
+        <v>210.2202333401631</v>
       </c>
       <c r="P13" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214695</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194023011</v>
       </c>
       <c r="K16" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L16" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M16" t="n">
-        <v>247.7627660915995</v>
+        <v>247.7627660915996</v>
       </c>
       <c r="N16" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O16" t="n">
-        <v>210.220233340163</v>
+        <v>210.2202333401631</v>
       </c>
       <c r="P16" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214695</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191335</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060437</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326294939</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36999,7 +36999,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899085</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060454</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
